--- a/template/cdiscount.xlsx
+++ b/template/cdiscount.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14740"/>
+    <workbookView windowWidth="28660" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="LWT for CDiscount" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>European Cdiscount Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Amazon cost(In Euro)</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>LOCAL Cost(Euro/ KG)</t>
   </si>
   <si>
@@ -127,12 +124,6 @@
     <t>Commission Fees</t>
   </si>
   <si>
-    <t>Closing Fee</t>
-  </si>
-  <si>
-    <t>High volume lising Fee</t>
-  </si>
-  <si>
     <t>Processing rate</t>
   </si>
   <si>
@@ -158,12 +149,6 @@
   </si>
   <si>
     <t>Storage Fee</t>
-  </si>
-  <si>
-    <t>Advertising Fee</t>
-  </si>
-  <si>
-    <t>Profit Rate</t>
   </si>
   <si>
     <t>Ground Service Rate</t>
@@ -339,6 +324,9 @@
     <t>Selling Price in Amazon</t>
   </si>
   <si>
+    <t>Profit</t>
+  </si>
+  <si>
     <t>NL LOCAL Cost(Euro/ KG)</t>
   </si>
   <si>
@@ -357,7 +345,19 @@
     <t>Referral Fees</t>
   </si>
   <si>
+    <t>Closing Fee</t>
+  </si>
+  <si>
+    <t>High volume lising Fee</t>
+  </si>
+  <si>
     <t>Fulfillment fee</t>
+  </si>
+  <si>
+    <t>Advertising Fee</t>
+  </si>
+  <si>
+    <t>Profit Rate</t>
   </si>
   <si>
     <t>Ground Sercice Rate</t>
@@ -402,8 +402,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot; &quot;"/>
     <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;"/>
@@ -425,13 +425,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -859,6 +859,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -867,6 +880,32 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -894,10 +933,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -920,65 +979,6 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1243,140 +1243,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1695,13 +1695,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1196686</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>207412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>296827</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>253908</xdr:rowOff>
@@ -1713,7 +1713,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22403435" y="645160"/>
+          <a:off x="21442045" y="645160"/>
           <a:ext cx="344805" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1787,13 +1787,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>763069</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>204036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>295013</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>250532</xdr:rowOff>
@@ -1805,7 +1805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24056975" y="641985"/>
+          <a:off x="23095585" y="641985"/>
           <a:ext cx="374650" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2919,10 +2919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -2945,857 +2945,781 @@
     <col min="20" max="20" width="10.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.1696428571429" style="1" customWidth="1"/>
     <col min="22" max="22" width="12.6696428571429" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.66964285714286" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.84821428571429" style="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3482142857143" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.8482142857143" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
-    <col min="31" max="33" width="11.8482142857143" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.66964285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1696428571429" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
-    <col min="49" max="49" width="19" style="1" customWidth="1"/>
-    <col min="50" max="50" width="8" style="1" customWidth="1"/>
-    <col min="51" max="51" width="9" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9.5" style="1" customWidth="1"/>
-    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.3482142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.8482142857143" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5" style="1" customWidth="1"/>
+    <col min="29" max="31" width="11.8482142857143" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10" style="1" customWidth="1"/>
+    <col min="33" max="33" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="36" max="37" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.1696428571429" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.8482142857143" style="1" customWidth="1"/>
+    <col min="44" max="44" width="19" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8" style="1" customWidth="1"/>
+    <col min="46" max="46" width="9" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5" style="1" customWidth="1"/>
+    <col min="48" max="48" width="13.8482142857143" style="1" customWidth="1"/>
+    <col min="49" max="16379" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="16380" max="16380" width="8.84821428571429" style="1"/>
+    <col min="16381" max="16384" width="8.83035714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:53">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="34.5" customHeight="1" spans="1:48">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="63"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="36"/>
     </row>
-    <row r="2" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="26.5" customHeight="1" spans="1:48">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="6" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="6" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="6" t="s">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="6" t="s">
+      <c r="AR2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AS2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="30" t="s">
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:48">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="O3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3" s="14"/>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:53">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT3" s="6" t="s">
+    <row r="4" ht="14.25" customHeight="1" spans="1:48">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="41"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:48">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="46"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1" spans="1:48">
+      <c r="A6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="46"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="6" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AY3" s="21" t="s">
+      <c r="D7" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="32"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="31"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="32"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:53">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="64"/>
+    <row r="9" ht="15" customHeight="1" spans="1:48">
+      <c r="A9" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="32"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:53">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="65"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A10" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="32"/>
     </row>
-    <row r="6" ht="20.25" customHeight="1" spans="1:53">
-      <c r="A6" s="36" t="s">
+    <row r="11" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="65"/>
+      <c r="D11" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="32"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A7" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="34"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A8" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="41" t="s">
+    <row r="12" ht="25.5" customHeight="1" spans="1:48">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="34"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:53">
-      <c r="A9" s="39" t="s">
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="34"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="34"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1" spans="1:53">
-      <c r="A11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="34"/>
-    </row>
-    <row r="12" ht="25.5" customHeight="1" spans="1:53">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="66"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="63"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:AZ1"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:AU1"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="T2:AE2"/>
+    <mergeCell ref="AF2:AP2"/>
+    <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -3809,9 +3733,9 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId2" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
@@ -3934,316 +3858,316 @@
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
-      <c r="BA1" s="28"/>
+      <c r="BA1" s="4"/>
     </row>
     <row r="2" ht="34.5" customHeight="1" spans="1:53">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="29"/>
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="8"/>
     </row>
     <row r="3" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="AX3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="30" t="s">
-        <v>22</v>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:53">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="Y4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="AF4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AI4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AF4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AJ4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AN4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AO4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AP4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AT4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AU4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AQ4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="6" t="s">
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AY4" s="21" t="s">
+      <c r="AY4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AZ4" s="6" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BA4" s="31"/>
+      <c r="BA4" s="14"/>
     </row>
     <row r="5" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A5" s="8">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="15">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="15">
         <v>0</v>
       </c>
       <c r="I5" s="18">
@@ -4254,25 +4178,25 @@
         <f>35.315*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="16" t="s">
         <v>93</v>
       </c>
       <c r="N5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="15">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="15">
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="15">
         <f>P5</f>
         <v>0</v>
       </c>
@@ -4286,18 +4210,18 @@
       <c r="T5" s="19">
         <v>0</v>
       </c>
-      <c r="U5" s="22" t="str">
+      <c r="U5" s="21" t="str">
         <f>T5*100&amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="22">
         <f>Q5*U5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="15">
         <v>0</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="15">
         <v>0</v>
       </c>
       <c r="Y5" s="19">
@@ -4314,30 +4238,30 @@
         <f>IF(K5="GB",AA5*N5,AA5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="15">
         <v>0</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="22">
         <f>AC5*Q5</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="15">
         <v>0</v>
       </c>
       <c r="AF5" s="19">
         <v>0</v>
       </c>
-      <c r="AG5" s="23">
+      <c r="AG5" s="22">
         <f>IF(K5="GB",AF5*J5,AF5*I5)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="23">
+      <c r="AH5" s="22">
         <v>0</v>
       </c>
       <c r="AI5" s="19">
         <v>0</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AJ5" s="22">
         <f>AI5*(Q5-S5-V5-W5-X5-Z5-AB5-AD5-AE5-AG5)</f>
         <v>0</v>
       </c>
@@ -4388,295 +4312,295 @@
         <f>AV5/(1+AY5)</f>
         <v>0</v>
       </c>
-      <c r="AX5" s="25">
+      <c r="AX5" s="23">
         <v>0</v>
       </c>
-      <c r="AY5" s="26" t="str">
+      <c r="AY5" s="24" t="str">
         <f>AX5*100&amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="AZ5" s="27">
+      <c r="AZ5" s="25">
         <f>AW5*AX5</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="32">
+      <c r="BA5" s="26">
         <f>AW5*D5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:53">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="33"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="29"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:53">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="34"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="31"/>
+      <c r="AZ7" s="31"/>
+      <c r="BA7" s="32"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:53">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="34"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="32"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:53">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="34"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="32"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:53">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
       <c r="BA10" s="35"/>
     </row>
   </sheetData>

--- a/template/cdiscount.xlsx
+++ b/template/cdiscount.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="15540"/>
+    <workbookView windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="LWT for CDiscount" sheetId="1" r:id="rId1"/>
-    <sheet name="公式模版" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>European Cdiscount Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -79,7 +78,7 @@
     <t>Market Place</t>
   </si>
   <si>
-    <t>Amazon cost(In Euro)</t>
+    <t>Cdiscount cost(In Euro)</t>
   </si>
   <si>
     <t>LOCAL Cost(Euro/ KG)</t>
@@ -311,104 +310,20 @@
   <si>
     <t>ASL</t>
   </si>
-  <si>
-    <t>European Amazon Declared Value-Analysis Report</t>
-  </si>
-  <si>
-    <t>Asin code</t>
-  </si>
-  <si>
-    <t>Country of Amazon warehouse</t>
-  </si>
-  <si>
-    <t>Selling Price in Amazon</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>NL LOCAL Cost(Euro/ KG)</t>
-  </si>
-  <si>
-    <t>Customs Value includes freight cost occurred outside EU-NL (In Euro)</t>
-  </si>
-  <si>
-    <t>NL Duty</t>
-  </si>
-  <si>
-    <t>Referral rares</t>
-  </si>
-  <si>
-    <t>Referral%</t>
-  </si>
-  <si>
-    <t>Referral Fees</t>
-  </si>
-  <si>
-    <t>Closing Fee</t>
-  </si>
-  <si>
-    <t>High volume lising Fee</t>
-  </si>
-  <si>
-    <t>Fulfillment fee</t>
-  </si>
-  <si>
-    <t>Advertising Fee</t>
-  </si>
-  <si>
-    <t>Profit Rate</t>
-  </si>
-  <si>
-    <t>Ground Sercice Rate</t>
-  </si>
-  <si>
-    <t>Ground Sercice Fee</t>
-  </si>
-  <si>
-    <t>Delivery To Amazon</t>
-  </si>
-  <si>
-    <t>NL Duty Rate</t>
-  </si>
-  <si>
-    <t>NL Duty Rate(%)</t>
-  </si>
-  <si>
-    <t>NL Duty Amount</t>
-  </si>
-  <si>
-    <t>AsinCode</t>
-  </si>
-  <si>
-    <t>NameOfTheProduct</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Hscode</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/product/B07Y82XX51</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="181" formatCode="0.000000"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -430,15 +345,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <u/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -826,49 +741,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1114,7 +992,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,34 +1004,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1238,146 +1116,103 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2921,8 +2756,8 @@
   <sheetPr/>
   <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -2973,840 +2808,9 @@
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1" spans="1:48">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="36"/>
-    </row>
-    <row r="2" ht="26.5" customHeight="1" spans="1:48">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:48">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV3" s="14"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:48">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="41"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:48">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="46"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1" spans="1:48">
-      <c r="A6" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="46"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A7" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="32"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A8" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="32"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:48">
-      <c r="A9" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="32"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A10" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="32"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1" spans="1:48">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="32"/>
-    </row>
-    <row r="12" ht="25.5" customHeight="1" spans="1:48">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="63"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:AU1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:AE2"/>
-    <mergeCell ref="AF2:AP2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AV2:AV3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId2" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
-  </hyperlinks>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BA10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="13" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.66964285714286" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.66964285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="17" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1696428571429" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.34821428571429" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.16964285714286" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.34821428571429" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4" style="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3482142857143" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.8482142857143" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
-    <col min="31" max="33" width="11.8482142857143" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5" style="1" customWidth="1"/>
-    <col min="35" max="36" width="5.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1696428571429" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
-    <col min="49" max="49" width="19" style="1" customWidth="1"/>
-    <col min="50" max="51" width="8" style="1" customWidth="1"/>
-    <col min="52" max="52" width="8.16964285714286" style="1" customWidth="1"/>
-    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="8" customHeight="1" spans="1:53">
-      <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3852,787 +2856,730 @@
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="5"/>
     </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:53">
-      <c r="A2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="8"/>
+    <row r="2" ht="26.5" customHeight="1" spans="1:48">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="11" t="s">
-        <v>21</v>
-      </c>
+    <row r="3" ht="60" customHeight="1" spans="1:48">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3" s="11"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:53">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA4" s="14"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:48">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
     </row>
-    <row r="5" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <f>F5*G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <f>35.315*I5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
-        <f>Q5-Q5/(1+R5)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="21" t="str">
-        <f>T5*100&amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="V5" s="22">
-        <f>Q5*U5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="19">
-        <f>Q5*Y5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <f>IF(K5="GB",AA5*N5,AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>AC5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="22">
-        <f>IF(K5="GB",AF5*J5,AF5*I5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="22">
-        <f>AI5*(Q5-S5-V5-W5-X5-Z5-AB5-AD5-AE5-AG5)</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
-        <f>AK5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="19">
-        <f>AM5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="19">
-        <f>AO5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="19">
-        <f>AQ5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AS5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="19">
-        <f>AS5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AU5" s="19">
-        <f>AL5+AN5+AP5+AR5+AT5</f>
-        <v>0</v>
-      </c>
-      <c r="AV5" s="19">
-        <f>IF((Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)&lt;1,Q5*0.3,Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)</f>
-        <v>0</v>
-      </c>
-      <c r="AW5" s="19">
-        <f>AV5/(1+AY5)</f>
-        <v>0</v>
-      </c>
-      <c r="AX5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="24" t="str">
-        <f>AX5*100&amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="AZ5" s="25">
-        <f>AW5*AX5</f>
-        <v>0</v>
-      </c>
-      <c r="BA5" s="26">
-        <f>AW5*D5</f>
-        <v>0</v>
-      </c>
+    <row r="5" ht="14.25" customHeight="1" spans="1:48">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="25"/>
     </row>
-    <row r="6" ht="16" customHeight="1" spans="1:53">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+    <row r="6" ht="20.25" customHeight="1" spans="1:48">
+      <c r="A6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="25"/>
     </row>
-    <row r="7" ht="16" customHeight="1" spans="1:53">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="32"/>
+    <row r="7" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A7" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="35"/>
     </row>
-    <row r="8" ht="16" customHeight="1" spans="1:53">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
+    <row r="8" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="35"/>
     </row>
-    <row r="9" ht="16" customHeight="1" spans="1:53">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="32"/>
+    <row r="9" ht="15" customHeight="1" spans="1:48">
+      <c r="A9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="35"/>
     </row>
-    <row r="10" ht="16" customHeight="1" spans="1:53">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="35"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="35"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:48">
+      <c r="A11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="35"/>
+    </row>
+    <row r="12" ht="25.5" customHeight="1" spans="1:48">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A2:AZ2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AU3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="BA3:BA4"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:AU1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:AE2"/>
+    <mergeCell ref="AF2:AP2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AV2:AV3"/>
   </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId2" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
+  </hyperlinks>
+  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>